--- a/Base/Teams/Eagles/Distributions.xlsx
+++ b/Base/Teams/Eagles/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.7651620188859096, 0.5133894124227371, 2.317282109801296, 3.4723746059171643)</t>
-  </si>
-  <si>
-    <t>JSU(-1.45705424606393, 1.6061044202995425, 0.33145073507821754, 8.999923280857539)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0067529883811153, 1.1844421422750764, 0.363974047861632, 2.977408996582377)</t>
-  </si>
-  <si>
-    <t>NIG(0.84945124549204, 0.570801805275119, 5.21277102322161, 5.211268141058184)</t>
+    <t>NIG(0.8359802999628896, 0.580617726797404, 2.0397646119585824, 3.44681798555417)</t>
+  </si>
+  <si>
+    <t>JSU(-1.5585472062144725, 1.6681034567163944, -0.21802181981375768, 9.249868129668949)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0051392706149738, 1.1324737740393926, 0.4129442553597543, 2.7444956726146312)</t>
+  </si>
+  <si>
+    <t>NIG(0.908248506523404, 0.6069449054983979, 5.1692827924436955, 5.3454507061725)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Eagles/Distributions.xlsx
+++ b/Base/Teams/Eagles/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.8359802999628896, 0.580617726797404, 2.0397646119585824, 3.44681798555417)</t>
-  </si>
-  <si>
-    <t>JSU(-1.5585472062144725, 1.6681034567163944, -0.21802181981375768, 9.249868129668949)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0051392706149738, 1.1324737740393926, 0.4129442553597543, 2.7444956726146312)</t>
-  </si>
-  <si>
-    <t>NIG(0.908248506523404, 0.6069449054983979, 5.1692827924436955, 5.3454507061725)</t>
+    <t>NCT(2.598518443074256, 1.4010919640075317, -0.20246679710828802, 2.72812311031776)</t>
+  </si>
+  <si>
+    <t>JSU(-1.6315669742205823, 1.5888618306996014, -0.4240514001540264, 8.340296966818615)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9356583481463515, 1.1299382344933107, 0.5188523317161331, 2.8022280446174896)</t>
+  </si>
+  <si>
+    <t>NIG(0.7708529735243873, 0.5110552478964645, 5.233556553360591, 4.999476389601632)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Eagles/Distributions.xlsx
+++ b/Base/Teams/Eagles/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.598518443074256, 1.4010919640075317, -0.20246679710828802, 2.72812311031776)</t>
-  </si>
-  <si>
-    <t>JSU(-1.6315669742205823, 1.5888618306996014, -0.4240514001540264, 8.340296966818615)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9356583481463515, 1.1299382344933107, 0.5188523317161331, 2.8022280446174896)</t>
-  </si>
-  <si>
-    <t>NIG(0.7708529735243873, 0.5110552478964645, 5.233556553360591, 4.999476389601632)</t>
+    <t>NCT(2.6266875099344738, 1.392408230027835, -0.2280729557114796, 2.736725697326687)</t>
+  </si>
+  <si>
+    <t>NIG(2.540468707914394, 1.87782560168174, 1.804583305940104, 9.286795582252218)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9400364873029723, 1.1432200249052609, 0.5674178242704842, 2.811983757539024)</t>
+  </si>
+  <si>
+    <t>NIG(0.815473353855582, 0.5285306320037302, 5.239236279912361, 5.152398861334832)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Eagles/Distributions.xlsx
+++ b/Base/Teams/Eagles/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.6266875099344738, 1.392408230027835, -0.2280729557114796, 2.736725697326687)</t>
-  </si>
-  <si>
-    <t>NIG(2.540468707914394, 1.87782560168174, 1.804583305940104, 9.286795582252218)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9400364873029723, 1.1432200249052609, 0.5674178242704842, 2.811983757539024)</t>
-  </si>
-  <si>
-    <t>NIG(0.815473353855582, 0.5285306320037302, 5.239236279912361, 5.152398861334832)</t>
+    <t>NCT(2.608902839520766, 1.2752471729130956, -0.008016812747032125, 2.8546286833102936)</t>
+  </si>
+  <si>
+    <t>EXN(2.431317568620919, 2.2002328460886167, 4.037413153604303)</t>
+  </si>
+  <si>
+    <t>NIG(0.9628236769974599, 0.6470768124984324, 1.322808158597693, 3.22329903066087)</t>
+  </si>
+  <si>
+    <t>NIG(0.8487520760179528, 0.5550835306140275, 5.121829312611803, 5.185113448159607)</t>
   </si>
 </sst>
 </file>
